--- a/Antidepressant/Obsolete_Not_Found_Antidepressant.xlsx
+++ b/Antidepressant/Obsolete_Not_Found_Antidepressant.xlsx
@@ -14,39 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>rxcui</t>
   </si>
   <si>
-    <t>drugs_not_found_name</t>
+    <t>name</t>
   </si>
   <si>
-    <t>drugs_not_found_tty</t>
+    <t>TTY</t>
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>releaseStartDate</t>
-  </si>
-  <si>
-    <t>releaseEndDate</t>
-  </si>
-  <si>
-    <t>isCurrent</t>
-  </si>
-  <si>
-    <t>activeStartDate</t>
-  </si>
-  <si>
-    <t>activeEndDate</t>
-  </si>
-  <si>
-    <t>remappedDate</t>
   </si>
 </sst>
 </file>
@@ -404,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,27 +402,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
